--- a/cnamts_presentation/Projet_nationaux.xlsx
+++ b/cnamts_presentation/Projet_nationaux.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="23">
   <si>
     <t>Cesar</t>
   </si>
@@ -54,9 +54,6 @@
     <t>KB - TlS Employeurs</t>
   </si>
   <si>
-    <t>Totaux</t>
-  </si>
-  <si>
     <t xml:space="preserve">Cesar </t>
   </si>
   <si>
@@ -64,13 +61,37 @@
   </si>
   <si>
     <t>EspaceEmployeur</t>
+  </si>
+  <si>
+    <t>Cra-Tactic</t>
+  </si>
+  <si>
+    <t>KB-TLS Employeurs</t>
+  </si>
+  <si>
+    <t>totaux 2017/2018</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>heures</t>
+  </si>
+  <si>
+    <t>Durée légale annuelle (base 39H)</t>
+  </si>
+  <si>
+    <t>Equivalent ETP</t>
+  </si>
+  <si>
+    <t>PROJETS NATIONAUX</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -80,6 +101,43 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF222222"/>
+      <name val="Open Sans"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -157,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -178,7 +236,14 @@
     <xf numFmtId="2" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="2" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -480,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:M14"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -496,9 +561,16 @@
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
     <col min="7" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7" customWidth="1"/>
+    <col min="12" max="12" width="18" customWidth="1"/>
+    <col min="13" max="13" width="16.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="C1" s="22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1"/>
       <c r="B3" s="11"/>
       <c r="C3" s="2" t="s">
@@ -522,8 +594,11 @@
       <c r="I3" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M3" s="23" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>2018</v>
       </c>
@@ -541,18 +616,15 @@
       <c r="G4" s="13"/>
       <c r="H4" s="13"/>
       <c r="I4" s="13"/>
-      <c r="K4" t="s">
+      <c r="L4" s="16" t="s">
         <v>12</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
       </c>
       <c r="M4" s="16">
         <f>SUM(C4:I4)+SUM(C10:I10)</f>
         <v>250.48000000000002</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="7"/>
       <c r="B5" s="3" t="s">
         <v>1</v>
@@ -566,12 +638,15 @@
         <v>14.3</v>
       </c>
       <c r="I5" s="13"/>
-      <c r="L5" t="s">
-        <v>15</v>
-      </c>
-      <c r="M5" s="16"/>
-    </row>
-    <row r="6" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L5" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="M5" s="16">
+        <f>SUM(C5:I5)+SUM(C11:I11)</f>
+        <v>272.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="7"/>
       <c r="B6" s="3" t="s">
         <v>2</v>
@@ -591,32 +666,35 @@
         <v>175</v>
       </c>
       <c r="I6" s="13"/>
-      <c r="L6" t="s">
-        <v>14</v>
+      <c r="L6" s="16" t="s">
+        <v>13</v>
       </c>
       <c r="M6" s="16">
         <f>SUM(C12:I12)+SUM(C6:I6)</f>
         <v>1937.15</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="7"/>
       <c r="B7" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="13">
-        <v>4</v>
-      </c>
+      <c r="C7" s="13"/>
       <c r="D7" s="13"/>
       <c r="E7" s="13"/>
       <c r="F7" s="13"/>
       <c r="G7" s="13"/>
       <c r="H7" s="13"/>
-      <c r="I7" s="13">
-        <v>48.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I7" s="13"/>
+      <c r="L7" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="16">
+        <f>SUM(C7:I7)+SUM(C13:I13)</f>
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="7"/>
       <c r="B8" s="3" t="s">
         <v>11</v>
@@ -630,8 +708,15 @@
       <c r="G8" s="13"/>
       <c r="H8" s="13"/>
       <c r="I8" s="13"/>
-    </row>
-    <row r="9" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L8" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="M8" s="16">
+        <f>SUM(C8:I8)+SUM(C14:I14)</f>
+        <v>119.80000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="12"/>
       <c r="C9" s="2" t="s">
         <v>10</v>
@@ -654,8 +739,18 @@
       <c r="I9" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L9" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="19">
+        <f>SUM(M4:M8)</f>
+        <v>2632.5300000000007</v>
+      </c>
+      <c r="N9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="6">
         <v>2017</v>
       </c>
@@ -671,8 +766,15 @@
       <c r="G10" s="14"/>
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
-    </row>
-    <row r="11" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L10" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="M10" s="16">
+        <f>M9/1787</f>
+        <v>1.4731561275881369</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="6"/>
       <c r="B11" s="4" t="s">
         <v>1</v>
@@ -691,7 +793,7 @@
         <v>32.5</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="19.5" x14ac:dyDescent="0.35">
       <c r="A12" s="6"/>
       <c r="B12" s="4" t="s">
         <v>2</v>
@@ -711,8 +813,17 @@
       <c r="I12" s="14">
         <v>464.15</v>
       </c>
-    </row>
-    <row r="13" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="L12" s="20" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="21">
+        <v>1787</v>
+      </c>
+      <c r="P12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="6"/>
       <c r="B13" s="4" t="s">
         <v>3</v>
@@ -729,7 +840,7 @@
         <v>48.3</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="8"/>
       <c r="B14" s="9" t="s">
         <v>11</v>
